--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Somme/Liste_des_villes_et_villages_fleuris_de_la_Somme.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Somme/Liste_des_villes_et_villages_fleuris_de_la_Somme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de la Somme dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de la Somme, dans les Hauts-de-France.
-En 2022, 89 communes du département figurent au palmarès du concours[1].
+En 2022, 89 communes du département figurent au palmarès du concours.
 </t>
         </is>
       </c>
@@ -514,22 +526,141 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition selon le nombre de fleurs
-Les 89 communes sont réparties comme suit :
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les 89 communes sont réparties comme suit :
 4 fleurs : 6 communes.
 3 fleurs : 19 communes.
 2 fleurs : 35 communes.
-1 fleur : 29 communes.
-Liste des communes
-La liste suivante répertorie les communes de la Somme labellisées « Ville ou village fleuri »[a] :
-4 fleurs
+1 fleur : 29 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Somme</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Somme</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes de la Somme labellisées « Ville ou village fleuri »[a] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Somme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Somme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Amiens
 Forest-l'Abbaye
 Guyencourt-Saulcourt
 Longuevillette
 Mons-Boubert
 Saint-Valery-sur-Somme
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Somme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Somme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abbeville
 Bray-sur-Somme
 Bussus-Bussuel
@@ -549,7 +680,47 @@
 Saint-Aubin-Rivière
 Seux
 Vignacourt
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Somme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Somme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Albert
 Bouvaincourt-sur-Bresle
 Bovelles
@@ -585,7 +756,47 @@
 Vaux-en-Amiénois
 Ville-sur-Ancre
 Villecourt
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Somme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Somme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Beaumetz
 Bussy-lès-Poix
 Cachy
